--- a/natmiOut/OldD7/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H2">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I2">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J2">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N2">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q2">
-        <v>29.09815388720913</v>
+        <v>43.25650686467355</v>
       </c>
       <c r="R2">
-        <v>29.09815388720913</v>
+        <v>389.308561782062</v>
       </c>
       <c r="S2">
-        <v>0.2320219985029275</v>
+        <v>0.2183362966532294</v>
       </c>
       <c r="T2">
-        <v>0.2320219985029275</v>
+        <v>0.2183362966532294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H3">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I3">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J3">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q3">
-        <v>48.25164149497984</v>
+        <v>69.72178220932445</v>
       </c>
       <c r="R3">
-        <v>48.25164149497984</v>
+        <v>627.49603988392</v>
       </c>
       <c r="S3">
-        <v>0.3847475112719526</v>
+        <v>0.3519192100108982</v>
       </c>
       <c r="T3">
-        <v>0.3847475112719526</v>
+        <v>0.3519192100108982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H4">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I4">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J4">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N4">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O4">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P4">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q4">
-        <v>7.300220776214299</v>
+        <v>11.17005259665133</v>
       </c>
       <c r="R4">
-        <v>7.300220776214299</v>
+        <v>100.530473369862</v>
       </c>
       <c r="S4">
-        <v>0.05821028442475846</v>
+        <v>0.0563806024606755</v>
       </c>
       <c r="T4">
-        <v>0.05821028442475846</v>
+        <v>0.05638060246067551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H5">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I5">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J5">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N5">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q5">
-        <v>14.46607775488638</v>
+        <v>22.02744655832122</v>
       </c>
       <c r="R5">
-        <v>14.46607775488638</v>
+        <v>198.247019024891</v>
       </c>
       <c r="S5">
-        <v>0.1153491827762619</v>
+        <v>0.1111830671236766</v>
       </c>
       <c r="T5">
-        <v>0.1153491827762619</v>
+        <v>0.1111830671236766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H6">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I6">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J6">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N6">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q6">
-        <v>7.719620400341029</v>
+        <v>6.406295666648223</v>
       </c>
       <c r="R6">
-        <v>7.719620400341029</v>
+        <v>57.656660999834</v>
       </c>
       <c r="S6">
-        <v>0.06155448073832719</v>
+        <v>0.03233564086664398</v>
       </c>
       <c r="T6">
-        <v>0.06155448073832719</v>
+        <v>0.03233564086664398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H7">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I7">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J7">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q7">
-        <v>12.80096178879319</v>
+        <v>10.32580722793778</v>
       </c>
       <c r="R7">
-        <v>12.80096178879319</v>
+        <v>92.93226505144</v>
       </c>
       <c r="S7">
-        <v>0.1020719303536639</v>
+        <v>0.05211929195198773</v>
       </c>
       <c r="T7">
-        <v>0.1020719303536639</v>
+        <v>0.05211929195198774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H8">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I8">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J8">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N8">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O8">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P8">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q8">
-        <v>1.936718509686267</v>
+        <v>1.654286597159333</v>
       </c>
       <c r="R8">
-        <v>1.936718509686267</v>
+        <v>14.888579374434</v>
       </c>
       <c r="S8">
-        <v>0.01544294874846159</v>
+        <v>0.008349976348224653</v>
       </c>
       <c r="T8">
-        <v>0.01544294874846159</v>
+        <v>0.008349976348224654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3739756666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.121927</v>
+      </c>
+      <c r="I9">
+        <v>0.1092711394000877</v>
+      </c>
+      <c r="J9">
+        <v>0.1092711394000878</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.723210333333332</v>
+      </c>
+      <c r="N9">
+        <v>26.169631</v>
+      </c>
+      <c r="O9">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="P9">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="Q9">
+        <v>3.262268399881889</v>
+      </c>
+      <c r="R9">
+        <v>29.360415598937</v>
+      </c>
+      <c r="S9">
+        <v>0.01646623023323137</v>
+      </c>
+      <c r="T9">
+        <v>0.01646623023323137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.56998</v>
+      </c>
+      <c r="I10">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J10">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.13024733333333</v>
+      </c>
+      <c r="N10">
+        <v>51.390742</v>
+      </c>
+      <c r="O10">
+        <v>0.2959211466465044</v>
+      </c>
+      <c r="P10">
+        <v>0.2959211466465043</v>
+      </c>
+      <c r="Q10">
+        <v>8.964715236128887</v>
+      </c>
+      <c r="R10">
+        <v>80.68243712515999</v>
+      </c>
+      <c r="S10">
+        <v>0.04524920912663098</v>
+      </c>
+      <c r="T10">
+        <v>0.04524920912663098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.465719164053752</v>
-      </c>
-      <c r="H9">
-        <v>0.465719164053752</v>
-      </c>
-      <c r="I9">
-        <v>0.2096710230240995</v>
-      </c>
-      <c r="J9">
-        <v>0.2096710230240995</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.24056889518625</v>
-      </c>
-      <c r="N9">
-        <v>8.24056889518625</v>
-      </c>
-      <c r="O9">
-        <v>0.1459508459599087</v>
-      </c>
-      <c r="P9">
-        <v>0.1459508459599087</v>
-      </c>
-      <c r="Q9">
-        <v>3.837790857193491</v>
-      </c>
-      <c r="R9">
-        <v>3.837790857193491</v>
-      </c>
-      <c r="S9">
-        <v>0.03060166318364682</v>
-      </c>
-      <c r="T9">
-        <v>0.03060166318364682</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.56998</v>
+      </c>
+      <c r="I11">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J11">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.61090666666666</v>
+      </c>
+      <c r="N11">
+        <v>82.83271999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.4769721651858779</v>
+      </c>
+      <c r="P11">
+        <v>0.4769721651858778</v>
+      </c>
+      <c r="Q11">
+        <v>14.44952374951111</v>
+      </c>
+      <c r="R11">
+        <v>130.0457137456</v>
+      </c>
+      <c r="S11">
+        <v>0.07293366322299195</v>
+      </c>
+      <c r="T11">
+        <v>0.07293366322299195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.56998</v>
+      </c>
+      <c r="I12">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J12">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.423514</v>
+      </c>
+      <c r="N12">
+        <v>13.270542</v>
+      </c>
+      <c r="O12">
+        <v>0.07641520344774541</v>
+      </c>
+      <c r="P12">
+        <v>0.0764152034477454</v>
+      </c>
+      <c r="Q12">
+        <v>2.314942836573333</v>
+      </c>
+      <c r="R12">
+        <v>20.83448552916</v>
+      </c>
+      <c r="S12">
+        <v>0.01168462463884525</v>
+      </c>
+      <c r="T12">
+        <v>0.01168462463884525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.56998</v>
+      </c>
+      <c r="I13">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J13">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.723210333333332</v>
+      </c>
+      <c r="N13">
+        <v>26.169631</v>
+      </c>
+      <c r="O13">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="P13">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="Q13">
+        <v>4.565088586375555</v>
+      </c>
+      <c r="R13">
+        <v>41.08579727738</v>
+      </c>
+      <c r="S13">
+        <v>0.02304218736296442</v>
+      </c>
+      <c r="T13">
+        <v>0.02304218736296442</v>
       </c>
     </row>
   </sheetData>
